--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value763.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value763.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9951468945444665</v>
+        <v>15</v>
       </c>
       <c r="B1">
-        <v>2.673136264570944</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>4.424954550180768</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.213367788291029</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>1.214123859876143</v>
+        <v>0.9737449288368225</v>
       </c>
     </row>
   </sheetData>
